--- a/biology/Médecine/Artère_infra-orbitaire/Artère_infra-orbitaire.xlsx
+++ b/biology/Médecine/Artère_infra-orbitaire/Artère_infra-orbitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_infra-orbitaire</t>
+          <t>Artère_infra-orbitaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'artère infra-orbitaire est une branche du troisième segment de l'artère maxillaire[1]. Elle vascularise essentiellement la partie infra-orbitaire du visage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère infra-orbitaire est une branche du troisième segment de l'artère maxillaire. Elle vascularise essentiellement la partie infra-orbitaire du visage.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_infra-orbitaire</t>
+          <t>Artère_infra-orbitaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine
-L'artère infra-orbitaire naît du troisième segment de l'artère maxillaire sur la tubérosité maxillaire, elle-même issue du système carotidien externe.
-Trajet
-Elle entre dans l’orbite par la fente sphéno-maxillaire. Elle parcourt ensuite le canal infra-orbitaire.
-Collatérales
-Elle donne une branche orbitaire au niveau de la fente sphéno-maxillaire destinée principalement à la vascularisation du sac lacrymal.
-Terminaison
-Elle se termine au niveau du foramen infra-orbitaire donnant des rameaux pour la paupière, le nez et à la gorge. Plusieurs variations anatomiques (au moins 5) des terminales semblent possibles mais la branche vestibulaire supérieure semble être constante[2].
-Variation anatomique</t>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère infra-orbitaire naît du troisième segment de l'artère maxillaire sur la tubérosité maxillaire, elle-même issue du système carotidien externe.
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_infra-orbitaire</t>
+          <t>Artère_infra-orbitaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
+          <t>Description anatomique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'artère infra-orbitaire s'anastomose avec l'artère faciale pour la vascularisation du sillon nasogénien (sillon situé entre la bouche et la joue)[3]. Elle vascularise aussi la paroi supérieure et la partie antéro-latérale du sinus maxillaire[4].
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle entre dans l’orbite par la fente sphéno-maxillaire. Elle parcourt ensuite le canal infra-orbitaire.
 </t>
         </is>
       </c>
@@ -562,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_infra-orbitaire</t>
+          <t>Artère_infra-orbitaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +594,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collatérales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle donne une branche orbitaire au niveau de la fente sphéno-maxillaire destinée principalement à la vascularisation du sac lacrymal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se termine au niveau du foramen infra-orbitaire donnant des rameaux pour la paupière, le nez et à la gorge. Plusieurs variations anatomiques (au moins 5) des terminales semblent possibles mais la branche vestibulaire supérieure semble être constante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artère_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère infra-orbitaire s'anastomose avec l'artère faciale pour la vascularisation du sillon nasogénien (sillon situé entre la bouche et la joue). Elle vascularise aussi la paroi supérieure et la partie antéro-latérale du sinus maxillaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Artère_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_infra-orbitaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les injections anti-rides peuvent parfois provoquer des embolies par occlusion artérielle donnant des accidents vasculaires cérébraux et des cécités[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les injections anti-rides peuvent parfois provoquer des embolies par occlusion artérielle donnant des accidents vasculaires cérébraux et des cécités.
 </t>
         </is>
       </c>
